--- a/strategy/perform_AWP/SCHD_YTD.xlsx
+++ b/strategy/perform_AWP/SCHD_YTD.xlsx
@@ -465,7 +465,7 @@
         <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>21.1</v>
+        <v>21.06</v>
       </c>
       <c r="C2" t="n">
         <v>6.07</v>
@@ -474,7 +474,7 @@
         <v>-10.8</v>
       </c>
       <c r="E2" t="n">
-        <v>7.39</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="C3" t="n">
         <v>0.05</v>
@@ -491,7 +491,7 @@
         <v>-5.88</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>12.15</v>
+        <v>12.13</v>
       </c>
       <c r="C4" t="n">
         <v>4.86</v>
@@ -508,7 +508,7 @@
         <v>19.46</v>
       </c>
       <c r="E4" t="n">
-        <v>12.78</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C5" t="n">
         <v>-8.76</v>
@@ -525,7 +525,7 @@
         <v>-2.15</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.83</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>29.36</v>
+        <v>29.3</v>
       </c>
       <c r="C6" t="n">
         <v>12.69</v>
@@ -542,7 +542,7 @@
         <v>0.33</v>
       </c>
       <c r="E6" t="n">
-        <v>15.97</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>22.91</v>
+        <v>22.86</v>
       </c>
       <c r="C7" t="n">
         <v>-4.6</v>
@@ -559,7 +559,7 @@
         <v>-4.23</v>
       </c>
       <c r="E7" t="n">
-        <v>7.29</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>19.97</v>
+        <v>19.93</v>
       </c>
       <c r="C8" t="n">
         <v>4.66</v>
@@ -576,7 +576,7 @@
         <v>-21.16</v>
       </c>
       <c r="E8" t="n">
-        <v>2.79</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="9">
@@ -584,7 +584,7 @@
         <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>14.24</v>
+        <v>14.22</v>
       </c>
       <c r="C9" t="n">
         <v>5.06</v>
@@ -593,7 +593,7 @@
         <v>0.23</v>
       </c>
       <c r="E9" t="n">
-        <v>8.18</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>22.22</v>
+        <v>22.18</v>
       </c>
       <c r="C10" t="n">
         <v>-9.609999999999999</v>
@@ -610,7 +610,7 @@
         <v>2.15</v>
       </c>
       <c r="E10" t="n">
-        <v>8.07</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
         <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.52</v>
+        <v>-5.51</v>
       </c>
       <c r="C11" t="n">
         <v>8.65</v>
@@ -627,7 +627,7 @@
         <v>-1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.45</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.36</v>
+        <v>-6.35</v>
       </c>
       <c r="C12" t="n">
         <v>-1.27</v>
@@ -644,7 +644,7 @@
         <v>2.12</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.95</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-15.1</v>
+        <v>-15.07</v>
       </c>
       <c r="C13" t="n">
         <v>12.75</v>
@@ -661,7 +661,7 @@
         <v>24.45</v>
       </c>
       <c r="E13" t="n">
-        <v>3.22</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>22.31</v>
+        <v>22.26</v>
       </c>
       <c r="C14" t="n">
         <v>1.6</v>
@@ -678,7 +678,7 @@
         <v>19.16</v>
       </c>
       <c r="E14" t="n">
-        <v>16.47</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>4.86</v>
       </c>
       <c r="E15" t="n">
-        <v>5.22</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>18.56</v>
       </c>
       <c r="E16" t="n">
-        <v>7.57</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>14.41</v>
+        <v>14.38</v>
       </c>
       <c r="C17" t="n">
         <v>0.71</v>
@@ -729,7 +729,7 @@
         <v>22.77</v>
       </c>
       <c r="E17" t="n">
-        <v>13.75</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="18">
@@ -737,7 +737,7 @@
         <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="C18" t="n">
         <v>10.3</v>
@@ -746,7 +746,7 @@
         <v>31.35</v>
       </c>
       <c r="E18" t="n">
-        <v>14.44</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="19">
@@ -754,7 +754,7 @@
         <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-30.82</v>
+        <v>-30.78</v>
       </c>
       <c r="C19" t="n">
         <v>33.95</v>
@@ -763,7 +763,7 @@
         <v>5.53</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.8</v>
+        <v>-18.47</v>
       </c>
     </row>
     <row r="20">
@@ -771,7 +771,7 @@
         <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>16.63</v>
+        <v>16.6</v>
       </c>
       <c r="C20" t="n">
         <v>-21.81</v>
@@ -780,7 +780,7 @@
         <v>23.91</v>
       </c>
       <c r="E20" t="n">
-        <v>8.640000000000001</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>9.779999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="C21" t="n">
         <v>9.01</v>
@@ -797,7 +797,7 @@
         <v>29.62</v>
       </c>
       <c r="E21" t="n">
-        <v>16.08</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>10.2</v>
       </c>
       <c r="E22" t="n">
-        <v>14.39</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>10.01</v>
+        <v>11.39</v>
       </c>
       <c r="C23" t="n">
         <v>2.41</v>
@@ -831,7 +831,7 @@
         <v>6.8</v>
       </c>
       <c r="E23" t="n">
-        <v>7.62</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="24">
@@ -839,7 +839,7 @@
         <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>30.25</v>
+        <v>31.97</v>
       </c>
       <c r="C24" t="n">
         <v>-13.38</v>
@@ -848,7 +848,7 @@
         <v>-28.22</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.85</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>11.68</v>
+        <v>10.21</v>
       </c>
       <c r="C25" t="n">
         <v>27.3</v>
@@ -865,7 +865,7 @@
         <v>-1.4</v>
       </c>
       <c r="E25" t="n">
-        <v>11.53</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3</v>
+        <v>-1.88</v>
       </c>
       <c r="C26" t="n">
         <v>-1.79</v>
@@ -882,7 +882,7 @@
         <v>-10.33</v>
       </c>
       <c r="E26" t="n">
-        <v>-3.16</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>13.88</v>
+        <v>12.99</v>
       </c>
       <c r="C27" t="n">
         <v>1.17</v>
@@ -899,7 +899,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>9.529999999999999</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="28">
@@ -907,7 +907,7 @@
         <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>19.1</v>
+        <v>19.17</v>
       </c>
       <c r="C28" t="n">
         <v>9.18</v>
@@ -916,7 +916,7 @@
         <v>14.12</v>
       </c>
       <c r="E28" t="n">
-        <v>15.21</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="29">
@@ -924,7 +924,7 @@
         <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>-6.97</v>
+        <v>-5.56</v>
       </c>
       <c r="C29" t="n">
         <v>-1.61</v>
@@ -933,7 +933,7 @@
         <v>-2</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.71</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>26.29</v>
+        <v>23.31</v>
       </c>
       <c r="C30" t="n">
         <v>14.12</v>
@@ -950,7 +950,7 @@
         <v>18.76</v>
       </c>
       <c r="E30" t="n">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>2020</v>
       </c>
       <c r="B31" t="n">
-        <v>15.03</v>
+        <v>13.84</v>
       </c>
       <c r="C31" t="n">
         <v>18.15</v>
@@ -967,7 +967,7 @@
         <v>24.21</v>
       </c>
       <c r="E31" t="n">
-        <v>19.98</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="32">
@@ -975,7 +975,7 @@
         <v>2021</v>
       </c>
       <c r="B32" t="n">
-        <v>27.03</v>
+        <v>27.94</v>
       </c>
       <c r="C32" t="n">
         <v>-4.6</v>
@@ -984,7 +984,7 @@
         <v>-3.61</v>
       </c>
       <c r="E32" t="n">
-        <v>9.5</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="33">
@@ -992,7 +992,7 @@
         <v>2022</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.77</v>
+        <v>-5</v>
       </c>
       <c r="C33" t="n">
         <v>-31.23</v>
@@ -1001,7 +1001,7 @@
         <v>0.61</v>
       </c>
       <c r="E33" t="n">
-        <v>-10.15</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>13.55</v>
       </c>
       <c r="E34" t="n">
-        <v>5.8</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.43</v>
+        <v>8.34</v>
       </c>
       <c r="C35" t="n">
         <v>3.31</v>
@@ -1037,7 +1037,7 @@
         <v>5.41</v>
       </c>
       <c r="E35" t="n">
-        <v>6.84</v>
+        <v>7.71</v>
       </c>
     </row>
   </sheetData>
